--- a/biology/Botanique/Jardinage_urbain/Jardinage_urbain.xlsx
+++ b/biology/Botanique/Jardinage_urbain/Jardinage_urbain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardinage urbain est la pratique du jardinage en ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Types de jardinages urbains</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En fonction du type d'organisation du jardin et du profil et des motivations des jardiniers, on l'appelle également « communautaire », « familial » ou « ouvrier ».
 Suivant le lieu d'implantation des cultures, on[Qui ?] parlera de « jardin sur terrasse », de « jardin suspendu », de « mur vivant » (ou « mur végétalisé »), de « toit végétalisé » (ou « toiture végétale »).
@@ -544,10 +558,12 @@
           <t>Enjeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que 50 % des terrains sont devenus urbains[Quand ?] et que cette part pourrait atteindre 60 % en 2030, les espaces verts et les jardins communautaires ou privés urbains deviennent des composantes de plus en plus importantes des enjeux de l'urbanisme, de la santé publique, de l'alimentation et du bien-vivre[réf. nécessaire].
-En complément des espaces verts publics, ces jardins contribuent au maintien de divers services écosystémiques. Selon l'ampleur de leur développement, au regard de la superficie mais aussi de la participation citoyenne, on voit également se mettre en place des projets de ceinture alimentaire. En 2016, une étude des jardins et jardiniers de Barcelone, en Espagne, a conclu à 20 avantages quant aux services écosystémiques (de la pollinisation) et socioculturels (apprentissage de l'environnement, fourniture d'aliments)[1]. Ces services sont principalement liés à la possibilité pour les résidents d'interagir avec la nature[2].
+En complément des espaces verts publics, ces jardins contribuent au maintien de divers services écosystémiques. Selon l'ampleur de leur développement, au regard de la superficie mais aussi de la participation citoyenne, on voit également se mettre en place des projets de ceinture alimentaire. En 2016, une étude des jardins et jardiniers de Barcelone, en Espagne, a conclu à 20 avantages quant aux services écosystémiques (de la pollinisation) et socioculturels (apprentissage de l'environnement, fourniture d'aliments). Ces services sont principalement liés à la possibilité pour les résidents d'interagir avec la nature.
 </t>
         </is>
       </c>
